--- a/DupireTests.xlsx
+++ b/DupireTests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="6870" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17298" windowHeight="6870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
@@ -597,7 +597,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1908,11 +1907,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="583266152"/>
-        <c:axId val="583261056"/>
+        <c:axId val="572296224"/>
+        <c:axId val="572290736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="583266152"/>
+        <c:axId val="572296224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +1954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583261056"/>
+        <c:crossAx val="572290736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1963,7 +1962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="583261056"/>
+        <c:axId val="572290736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2014,7 +2013,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583266152"/>
+        <c:crossAx val="572296224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2028,7 +2027,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5058,12 +5056,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="247080184"/>
-        <c:axId val="247077832"/>
-        <c:axId val="532027312"/>
+        <c:axId val="572297400"/>
+        <c:axId val="572297792"/>
+        <c:axId val="574871912"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="247080184"/>
+        <c:axId val="572297400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5149,7 +5147,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247077832"/>
+        <c:crossAx val="572297792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5157,7 +5155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247077832"/>
+        <c:axId val="572297792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5251,12 +5249,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247080184"/>
+        <c:crossAx val="572297400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="532027312"/>
+        <c:axId val="574871912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5342,7 +5340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247077832"/>
+        <c:crossAx val="572297792"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -14093,12 +14091,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="247080968"/>
-        <c:axId val="247078224"/>
-        <c:axId val="532969000"/>
+        <c:axId val="572298184"/>
+        <c:axId val="572291520"/>
+        <c:axId val="575777528"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="247080968"/>
+        <c:axId val="572298184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14184,7 +14182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247078224"/>
+        <c:crossAx val="572291520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14192,7 +14190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247078224"/>
+        <c:axId val="572291520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14278,12 +14276,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247080968"/>
+        <c:crossAx val="572298184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="532969000"/>
+        <c:axId val="575777528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14368,7 +14366,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247078224"/>
+        <c:crossAx val="572291520"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="5"/>
       </c:serAx>
@@ -15268,11 +15266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247079400"/>
-        <c:axId val="533029640"/>
+        <c:axId val="572292696"/>
+        <c:axId val="572293088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247079400"/>
+        <c:axId val="572292696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15398,12 +15396,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533029640"/>
+        <c:crossAx val="572293088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="533029640"/>
+        <c:axId val="572293088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15529,7 +15527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247079400"/>
+        <c:crossAx val="572292696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16431,11 +16429,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="533029248"/>
-        <c:axId val="533030424"/>
+        <c:axId val="576624472"/>
+        <c:axId val="576628392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="533029248"/>
+        <c:axId val="576624472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16478,7 +16476,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533030424"/>
+        <c:crossAx val="576628392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16486,7 +16484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="533030424"/>
+        <c:axId val="576628392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16537,7 +16535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533029248"/>
+        <c:crossAx val="576624472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23746,12 +23744,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="533030032"/>
-        <c:axId val="533031600"/>
-        <c:axId val="534115888"/>
+        <c:axId val="576622904"/>
+        <c:axId val="576629568"/>
+        <c:axId val="576264328"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="533030032"/>
+        <c:axId val="576622904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23794,7 +23792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533031600"/>
+        <c:crossAx val="576629568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23802,7 +23800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="533031600"/>
+        <c:axId val="576629568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23853,12 +23851,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533030032"/>
+        <c:crossAx val="576622904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="534115888"/>
+        <c:axId val="576264328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23900,7 +23898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533031600"/>
+        <c:crossAx val="576629568"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -25663,7 +25661,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="83" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25674,7 +25672,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="83" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -25710,7 +25708,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9293311" cy="6075405"/>
+    <xdr:ext cx="9295482" cy="6073048"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -25737,7 +25735,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6085417"/>
+    <xdr:ext cx="9295482" cy="6073048"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -26148,24 +26146,24 @@
       <selection activeCell="B5" sqref="B5:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.15625" style="3"/>
+    <col min="2" max="2" width="15.15625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9.15625" style="3"/>
     <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="7" width="9.15625" style="3"/>
+    <col min="8" max="8" width="15.26171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.68359375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.26171875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="25.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.15625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="6.83984375" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.15625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -26174,7 +26172,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="12" t="str">
         <f>_xll.AboutDupireXL()</f>
         <v>Dupire local vol Excel Interface for OOPA 2016/17.</v>
@@ -26184,13 +26182,13 @@
       <c r="E3" s="14"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -26198,7 +26196,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
@@ -26206,7 +26204,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
@@ -26216,7 +26214,7 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -26239,7 +26237,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -26259,7 +26257,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -26273,7 +26271,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
@@ -26287,7 +26285,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
@@ -26301,7 +26299,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="10" t="s">
         <v>50</v>
       </c>
@@ -26312,14 +26310,14 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="13" t="s">
         <v>23</v>
       </c>
@@ -26343,7 +26341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
@@ -26384,7 +26382,7 @@
         <v>0.40998924133338094</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="5">
         <f>$C$6*EXP($C$7*C20)</f>
         <v>102.53151205244289</v>
@@ -26427,7 +26425,7 @@
         <v>3.5759910863804443</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="8">
         <f>$C$6*EXP($C$7*C21)</f>
         <v>105.12710963760242</v>
@@ -26470,7 +26468,7 @@
         <v>1.6406189061481338</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="10">
         <f>$C$6*EXP($C$7*C22)</f>
         <v>103.8211997081825</v>
@@ -26512,19 +26510,19 @@
         <v>1.8755330779539863</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="59"/>
       <c r="M23" s="38"/>
       <c r="O23" s="47"/>
       <c r="P23" s="47"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="59"/>
       <c r="M24" s="38"/>
       <c r="O24" s="47"/>
       <c r="P24" s="47"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="13" t="s">
         <v>27</v>
       </c>
@@ -26548,7 +26546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="6" t="s">
         <v>2</v>
       </c>
@@ -26589,7 +26587,7 @@
         <v>3.0496062783640689</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="5">
         <v>80</v>
       </c>
@@ -26630,7 +26628,7 @@
         <v>0.31835920397532441</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="8">
         <v>80</v>
       </c>
@@ -26671,7 +26669,7 @@
         <v>0.4292567151644599</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="8">
         <v>90</v>
       </c>
@@ -26712,7 +26710,7 @@
         <v>4.9202708597562426</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="8">
         <v>120</v>
       </c>
@@ -26753,7 +26751,7 @@
         <v>4.2137035846187311E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="10">
         <v>90</v>
       </c>
@@ -26787,7 +26785,7 @@
         <v>1.2657407325012844</v>
       </c>
     </row>
-    <row r="34" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H34" s="13" t="s">
         <v>17</v>
       </c>
@@ -26802,7 +26800,7 @@
       <c r="Q34" s="15"/>
       <c r="R34" s="7"/>
     </row>
-    <row r="35" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H35" s="17" t="str">
         <f t="array" ref="H35:H39">_xll.GetLatestErrors(5)</f>
         <v/>
@@ -26818,7 +26816,7 @@
       <c r="Q35" s="18"/>
       <c r="R35" s="9"/>
     </row>
-    <row r="36" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H36" s="17" t="str">
         <v/>
       </c>
@@ -26833,7 +26831,7 @@
       <c r="Q36" s="18"/>
       <c r="R36" s="9"/>
     </row>
-    <row r="37" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H37" s="17" t="str">
         <v/>
       </c>
@@ -26848,7 +26846,7 @@
       <c r="Q37" s="18"/>
       <c r="R37" s="9"/>
     </row>
-    <row r="38" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H38" s="17" t="str">
         <v/>
       </c>
@@ -26863,7 +26861,7 @@
       <c r="Q38" s="18"/>
       <c r="R38" s="9"/>
     </row>
-    <row r="39" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H39" s="12" t="str">
         <v/>
       </c>
@@ -26888,30 +26886,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.15625" style="3"/>
+    <col min="2" max="2" width="15.15625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9.15625" style="3"/>
+    <col min="5" max="5" width="14.41796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.15625" style="3"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="3" customWidth="1"/>
-    <col min="11" max="12" width="8.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="8" width="15.26171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.68359375" style="3" customWidth="1"/>
+    <col min="11" max="12" width="8.26171875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.15625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -26920,7 +26918,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="12" t="str">
         <f>_xll.AboutDupireXL()</f>
         <v>Dupire local vol Excel Interface for OOPA 2016/17.</v>
@@ -26930,7 +26928,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -26942,7 +26940,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -26956,7 +26954,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
@@ -26970,13 +26968,13 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
@@ -26985,7 +26983,7 @@
         <v>0.31622776601683794</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
@@ -26993,7 +26991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
@@ -27001,7 +26999,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -27009,7 +27007,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
@@ -27017,7 +27015,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="13" t="s">
         <v>23</v>
       </c>
@@ -27036,7 +27034,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f>$C$6*EXP($C$7*C18)</f>
         <v>102.53151205244289</v>
@@ -27052,19 +27050,19 @@
         <v>15.42406543977819</v>
       </c>
       <c r="F18" s="67">
-        <f t="array" ref="F18">_xll.DupireSsviEuropeanPriceWithMC($C$6,$C$7,$C$11,$C$12,$C$13,$C$14,$C$15,C18,B18,D18,ROUND(C18*$F$6,0),$F$7)</f>
-        <v>15.116363379534727</v>
+        <f>_xll.DupireSsviEuropeanPriceWithMC($C$6,$C$7,$C$11,$C$12,$C$13,$C$14,$C$15,C18,B18,D18,ROUND(C18*$F$6,0),$F$7)</f>
+        <v>15.541179347870678</v>
       </c>
       <c r="G18" s="30">
         <f>ABS(E18-F18)</f>
-        <v>0.30770206024346258</v>
+        <v>0.11711390809248812</v>
       </c>
       <c r="H18" s="2" t="b">
         <f>ABS(1-F18/E18)&lt;$F$5</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="17">
         <f>$C$6*EXP($C$7*C19)</f>
         <v>105.12710963760242</v>
@@ -27081,18 +27079,18 @@
       </c>
       <c r="F19" s="67">
         <f>_xll.DupireSsviEuropeanPriceWithMC($C$6,$C$7,$C$11,$C$12,$C$13,$C$14,$C$15,C19,B19,D19,ROUND(C19*$F$6,0),$F$7)</f>
-        <v>28.898881395378787</v>
+        <v>29.196508046151745</v>
       </c>
       <c r="G19" s="28">
         <f>ABS(E19-F19)</f>
-        <v>0.33960662683860932</v>
+        <v>4.1979976065650959E-2</v>
       </c>
       <c r="H19" s="9" t="b">
         <f>ABS(1-F19/E19)&lt;$F$5</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="12">
         <f>$C$6*EXP($C$7*C20)</f>
         <v>103.8211997081825</v>
@@ -27109,34 +27107,34 @@
       </c>
       <c r="F20" s="68">
         <f>_xll.DupireSsviEuropeanPriceWithMC($C$6,$C$7,$C$11,$C$12,$C$13,$C$14,$C$15,C20,B20,D20,ROUND(C20*$F$6,0),$F$7)</f>
-        <v>21.394409606405752</v>
+        <v>21.676181991368171</v>
       </c>
       <c r="G20" s="29">
         <f>ABS(E20-F20)</f>
-        <v>0.41880813820316831</v>
+        <v>0.1370357532407489</v>
       </c>
       <c r="H20" s="11" t="b">
         <f>ABS(1-F20/E20)&lt;$F$5</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="70"/>
       <c r="F21" s="70"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="70"/>
       <c r="F22" s="70"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="70"/>
       <c r="F23" s="67"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="70"/>
       <c r="F24" s="68"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="13" t="s">
         <v>27</v>
       </c>
@@ -27155,7 +27153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <v>80</v>
       </c>
@@ -27182,7 +27180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="17">
         <v>80</v>
       </c>
@@ -27209,7 +27207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="17">
         <v>90</v>
       </c>
@@ -27236,7 +27234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="17">
         <v>120</v>
       </c>
@@ -27263,7 +27261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="12">
         <v>90</v>
       </c>
@@ -27290,7 +27288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="13" t="s">
         <v>17</v>
       </c>
@@ -27305,7 +27303,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="17" t="str">
         <f t="array" ref="B36:B40">_xll.GetLatestErrors(5)</f>
         <v/>
@@ -27321,7 +27319,7 @@
       <c r="K36" s="18"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="17" t="str">
         <v/>
       </c>
@@ -27336,7 +27334,7 @@
       <c r="K37" s="18"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="17" t="str">
         <v/>
       </c>
@@ -27351,7 +27349,7 @@
       <c r="K38" s="18"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="17" t="str">
         <v/>
       </c>
@@ -27366,7 +27364,7 @@
       <c r="K39" s="18"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="12" t="str">
         <v/>
       </c>
@@ -27395,28 +27393,28 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.15625" style="3"/>
+    <col min="2" max="2" width="15.15625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9.15625" style="3"/>
+    <col min="5" max="5" width="14.41796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.15625" style="3"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.26171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="10" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="3"/>
+    <col min="11" max="11" width="8.68359375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.26171875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.15625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -27455,7 +27453,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="12" t="str">
         <f>_xll.AboutDupireXL()</f>
         <v>Dupire local vol Excel Interface for OOPA 2016/17.</v>
@@ -27495,7 +27493,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -27527,7 +27525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -27559,7 +27557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -27602,7 +27600,7 @@
       </c>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
@@ -27642,7 +27640,7 @@
       </c>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="H8" s="8"/>
       <c r="I8" s="17">
         <f t="shared" ref="I8:I10" si="2">0.1+I7</f>
@@ -27668,7 +27666,7 @@
       </c>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="H9" s="8"/>
       <c r="I9" s="17">
         <f t="shared" si="2"/>
@@ -27694,7 +27692,7 @@
       </c>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
@@ -27722,7 +27720,7 @@
       </c>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
@@ -27750,7 +27748,7 @@
       </c>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
@@ -27777,7 +27775,7 @@
       </c>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
@@ -27804,7 +27802,7 @@
       </c>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -27831,7 +27829,7 @@
       </c>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
@@ -27858,7 +27856,7 @@
       </c>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="Q16" s="8"/>
       <c r="R16" s="18">
         <f t="shared" si="0"/>
@@ -27874,7 +27872,7 @@
       </c>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:21" x14ac:dyDescent="0.55000000000000004">
       <c r="H17" s="3" t="s">
         <v>47</v>
       </c>
@@ -27896,7 +27894,7 @@
       </c>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:21" x14ac:dyDescent="0.55000000000000004">
       <c r="G18" s="33">
         <v>1</v>
       </c>
@@ -27938,7 +27936,7 @@
       </c>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:21" x14ac:dyDescent="0.55000000000000004">
       <c r="G19" s="34">
         <f>1+G18</f>
         <v>2</v>
@@ -27981,7 +27979,7 @@
       </c>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:21" x14ac:dyDescent="0.55000000000000004">
       <c r="G20" s="34">
         <f>1+G19</f>
         <v>3</v>
@@ -28024,7 +28022,7 @@
       </c>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:21" x14ac:dyDescent="0.55000000000000004">
       <c r="G21" s="35">
         <f>1+G20</f>
         <v>4</v>
@@ -28067,7 +28065,7 @@
       </c>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:21" x14ac:dyDescent="0.55000000000000004">
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
       <c r="N22" s="42"/>
@@ -28086,7 +28084,7 @@
       </c>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:21" x14ac:dyDescent="0.55000000000000004">
       <c r="H23" s="13" t="s">
         <v>45</v>
       </c>
@@ -28125,7 +28123,7 @@
       </c>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:21" x14ac:dyDescent="0.55000000000000004">
       <c r="Q24" s="8"/>
       <c r="R24" s="18">
         <f t="shared" si="0"/>
@@ -28141,7 +28139,7 @@
       </c>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:21" x14ac:dyDescent="0.55000000000000004">
       <c r="H25" s="6" t="s">
         <v>48</v>
       </c>
@@ -28159,7 +28157,7 @@
       </c>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:21" x14ac:dyDescent="0.55000000000000004">
       <c r="H26" s="6"/>
       <c r="I26" s="15">
         <v>0.5</v>
@@ -28179,7 +28177,7 @@
       </c>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:21" x14ac:dyDescent="0.55000000000000004">
       <c r="H27" s="8">
         <v>1</v>
       </c>
@@ -28204,7 +28202,7 @@
       </c>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:21" x14ac:dyDescent="0.55000000000000004">
       <c r="H28" s="8">
         <f>1+H27</f>
         <v>2</v>
@@ -28230,7 +28228,7 @@
       </c>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:21" x14ac:dyDescent="0.55000000000000004">
       <c r="H29" s="8">
         <f>1+H28</f>
         <v>3</v>
@@ -28256,7 +28254,7 @@
       </c>
       <c r="U29" s="9"/>
     </row>
-    <row r="30" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:21" x14ac:dyDescent="0.55000000000000004">
       <c r="H30" s="10">
         <f>1+H29</f>
         <v>4</v>
@@ -28282,7 +28280,7 @@
       </c>
       <c r="U30" s="9"/>
     </row>
-    <row r="31" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:21" x14ac:dyDescent="0.55000000000000004">
       <c r="Q31" s="8"/>
       <c r="R31" s="18"/>
       <c r="S31" s="18"/>
@@ -28292,7 +28290,7 @@
       </c>
       <c r="U31" s="9"/>
     </row>
-    <row r="32" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:21" x14ac:dyDescent="0.55000000000000004">
       <c r="H32" s="13" t="s">
         <v>45</v>
       </c>
@@ -28317,7 +28315,7 @@
       </c>
       <c r="U32" s="9"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="Q33" s="8"/>
       <c r="R33" s="18"/>
       <c r="S33" s="18"/>
@@ -28327,7 +28325,7 @@
       </c>
       <c r="U33" s="9"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="Q34" s="10"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
@@ -28337,7 +28335,7 @@
       </c>
       <c r="U34" s="11"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="13" t="s">
         <v>17</v>
       </c>
@@ -28367,7 +28365,7 @@
         <v>10.856158673055157</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="17" t="str">
         <f t="array" ref="B37:B41">_xll.GetLatestErrors(5)</f>
         <v/>
@@ -28398,7 +28396,7 @@
         <v>22.843365595237703</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="17" t="str">
         <v/>
       </c>
@@ -28428,7 +28426,7 @@
         <v>35.938010949579208</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="17" t="str">
         <v/>
       </c>
@@ -28443,7 +28441,7 @@
       <c r="K39" s="18"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="17" t="str">
         <v/>
       </c>
@@ -28458,7 +28456,7 @@
       <c r="K40" s="18"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="12" t="str">
         <v/>
       </c>
@@ -28487,13 +28485,13 @@
       <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.26171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -28502,7 +28500,7 @@
       <c r="D2" s="15"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12" t="str">
         <f>_xll.AboutDupireXL()</f>
         <v>Dupire local vol Excel Interface for OOPA 2016/17.</v>
@@ -28512,14 +28510,14 @@
       <c r="D3" s="14"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -28553,7 +28551,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -28590,7 +28588,7 @@
         <v>13.45227640238482</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
@@ -28627,7 +28625,7 @@
         <v>9.2116203172744431</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -28656,7 +28654,7 @@
         <v>12.107026637505678</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -28685,7 +28683,7 @@
         <v>27.413642025373196</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
@@ -28716,7 +28714,7 @@
         <v>22.761649194923695</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -28750,7 +28748,7 @@
         <v>9.7001279474408921</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -28761,7 +28759,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -28772,7 +28770,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -28783,7 +28781,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
@@ -28807,18 +28805,18 @@
       <selection activeCell="F11" sqref="F11:AQ19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:43" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:43" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -28830,7 +28828,7 @@
         <v>DupireSsviLookbackOptionPriceMC error: Only single dimensional arrays are supported for the requested action.</v>
       </c>
     </row>
-    <row r="4" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:43" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
@@ -28838,17 +28836,17 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:43" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:43" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:43" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
@@ -28857,7 +28855,7 @@
         <v>0.31622776601683794</v>
       </c>
     </row>
-    <row r="8" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:43" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
@@ -28865,7 +28863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:43" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
@@ -28873,7 +28871,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:43" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
@@ -28881,7 +28879,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:43" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
@@ -29004,7 +29002,7 @@
         <v>95.042036633597846</v>
       </c>
     </row>
-    <row r="12" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F12">
         <v>100</v>
       </c>
@@ -29120,7 +29118,7 @@
         <v>105.94100644317132</v>
       </c>
     </row>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:43" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="5" t="s">
         <v>62</v>
       </c>
@@ -29242,7 +29240,7 @@
         <v>95.111171895532181</v>
       </c>
     </row>
-    <row r="14" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:43" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="10" t="s">
         <v>63</v>
       </c>
@@ -29364,7 +29362,7 @@
         <v>112.12232115821138</v>
       </c>
     </row>
-    <row r="15" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F15">
         <v>100</v>
       </c>
@@ -29480,7 +29478,7 @@
         <v>101.72376710273625</v>
       </c>
     </row>
-    <row r="16" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F16">
         <v>100</v>
       </c>
@@ -29596,7 +29594,7 @@
         <v>91.477731143370562</v>
       </c>
     </row>
-    <row r="17" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F17">
         <v>100</v>
       </c>
@@ -29712,7 +29710,7 @@
         <v>104.158609353461</v>
       </c>
     </row>
-    <row r="18" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F18">
         <v>100</v>
       </c>
@@ -29828,7 +29826,7 @@
         <v>94.522789896078677</v>
       </c>
     </row>
-    <row r="19" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F19">
         <v>100</v>
       </c>
@@ -29944,7 +29942,7 @@
         <v>110.57911000197289</v>
       </c>
     </row>
-    <row r="20" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F20">
         <v>100</v>
       </c>
@@ -30060,7 +30058,7 @@
         <v>124.04901505446888</v>
       </c>
     </row>
-    <row r="21" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F21">
         <v>100</v>
       </c>
@@ -30176,7 +30174,7 @@
         <v>89.423892136277942</v>
       </c>
     </row>
-    <row r="22" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F22">
         <v>100</v>
       </c>
@@ -30292,7 +30290,7 @@
         <v>104.84548410338483</v>
       </c>
     </row>
-    <row r="23" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F23">
         <v>100</v>
       </c>
@@ -30408,7 +30406,7 @@
         <v>104.05522760225021</v>
       </c>
     </row>
-    <row r="24" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F24">
         <v>100</v>
       </c>
@@ -30524,7 +30522,7 @@
         <v>116.64096293287402</v>
       </c>
     </row>
-    <row r="25" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F25">
         <v>100</v>
       </c>
@@ -30640,7 +30638,7 @@
         <v>101.76006658673637</v>
       </c>
     </row>
-    <row r="26" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F26">
         <v>100</v>
       </c>
@@ -30756,7 +30754,7 @@
         <v>106.16738367890351</v>
       </c>
     </row>
-    <row r="27" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F27">
         <v>100</v>
       </c>
@@ -30872,7 +30870,7 @@
         <v>90.590968728817487</v>
       </c>
     </row>
-    <row r="28" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F28">
         <v>100</v>
       </c>
@@ -30988,7 +30986,7 @@
         <v>90.561380403900031</v>
       </c>
     </row>
-    <row r="29" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F29">
         <v>100</v>
       </c>
@@ -31104,7 +31102,7 @@
         <v>114.40961295993529</v>
       </c>
     </row>
-    <row r="30" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F30">
         <v>100</v>
       </c>
@@ -31220,7 +31218,7 @@
         <v>95.63164596107076</v>
       </c>
     </row>
-    <row r="31" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F31">
         <v>100</v>
       </c>
@@ -31336,7 +31334,7 @@
         <v>95.093239822202733</v>
       </c>
     </row>
-    <row r="32" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F32">
         <v>100</v>
       </c>
@@ -31452,7 +31450,7 @@
         <v>103.96055596457799</v>
       </c>
     </row>
-    <row r="33" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F33">
         <v>100</v>
       </c>
@@ -31568,7 +31566,7 @@
         <v>88.900566629989783</v>
       </c>
     </row>
-    <row r="34" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F34">
         <v>100</v>
       </c>
@@ -31684,7 +31682,7 @@
         <v>113.66734819560276</v>
       </c>
     </row>
-    <row r="35" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F35">
         <v>100</v>
       </c>
@@ -31800,7 +31798,7 @@
         <v>109.99416068921181</v>
       </c>
     </row>
-    <row r="36" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F36">
         <v>100</v>
       </c>
@@ -31916,7 +31914,7 @@
         <v>107.43460488227728</v>
       </c>
     </row>
-    <row r="37" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F37">
         <v>100</v>
       </c>
@@ -32032,7 +32030,7 @@
         <v>100.83543509291167</v>
       </c>
     </row>
-    <row r="38" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F38">
         <v>100</v>
       </c>
@@ -32148,7 +32146,7 @@
         <v>76.655797623901449</v>
       </c>
     </row>
-    <row r="39" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F39">
         <v>100</v>
       </c>
@@ -32264,7 +32262,7 @@
         <v>88.516239030248968</v>
       </c>
     </row>
-    <row r="40" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F40">
         <v>100</v>
       </c>
@@ -32380,7 +32378,7 @@
         <v>95.014271955082606</v>
       </c>
     </row>
-    <row r="41" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F41">
         <v>100</v>
       </c>
@@ -32496,7 +32494,7 @@
         <v>94.324832481749681</v>
       </c>
     </row>
-    <row r="42" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F42">
         <v>100</v>
       </c>
@@ -32612,7 +32610,7 @@
         <v>102.96101607361663</v>
       </c>
     </row>
-    <row r="43" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F43">
         <v>100</v>
       </c>
@@ -32728,7 +32726,7 @@
         <v>100.68245574509939</v>
       </c>
     </row>
-    <row r="44" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F44">
         <v>100</v>
       </c>
@@ -32844,7 +32842,7 @@
         <v>111.10534447211992</v>
       </c>
     </row>
-    <row r="45" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F45">
         <v>100</v>
       </c>
@@ -32960,7 +32958,7 @@
         <v>75.914716796264685</v>
       </c>
     </row>
-    <row r="46" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F46">
         <v>100</v>
       </c>
@@ -33076,7 +33074,7 @@
         <v>97.848155018369283</v>
       </c>
     </row>
-    <row r="47" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F47">
         <v>100</v>
       </c>
@@ -33192,7 +33190,7 @@
         <v>117.89726694775349</v>
       </c>
     </row>
-    <row r="48" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F48">
         <v>100</v>
       </c>
@@ -33308,7 +33306,7 @@
         <v>99.368049571175192</v>
       </c>
     </row>
-    <row r="49" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F49">
         <v>100</v>
       </c>
@@ -33424,7 +33422,7 @@
         <v>111.28726941431385</v>
       </c>
     </row>
-    <row r="50" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F50">
         <v>100</v>
       </c>
@@ -33540,7 +33538,7 @@
         <v>87.247156634291059</v>
       </c>
     </row>
-    <row r="51" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F51">
         <v>100</v>
       </c>
@@ -33656,7 +33654,7 @@
         <v>81.155272897606537</v>
       </c>
     </row>
-    <row r="52" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F52">
         <v>100</v>
       </c>
@@ -33772,7 +33770,7 @@
         <v>102.42544492613786</v>
       </c>
     </row>
-    <row r="53" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F53">
         <v>100</v>
       </c>
@@ -33888,7 +33886,7 @@
         <v>106.66691729216843</v>
       </c>
     </row>
-    <row r="54" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F54">
         <v>100</v>
       </c>
@@ -34004,7 +34002,7 @@
         <v>99.035326400988026</v>
       </c>
     </row>
-    <row r="55" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F55">
         <v>100</v>
       </c>
@@ -34120,7 +34118,7 @@
         <v>115.47391444490454</v>
       </c>
     </row>
-    <row r="56" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F56">
         <v>100</v>
       </c>
@@ -34236,7 +34234,7 @@
         <v>88.586534817638253</v>
       </c>
     </row>
-    <row r="57" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F57">
         <v>100</v>
       </c>
@@ -34352,7 +34350,7 @@
         <v>83.440602798788817</v>
       </c>
     </row>
-    <row r="58" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F58">
         <v>100</v>
       </c>
@@ -34468,7 +34466,7 @@
         <v>86.891764111211572</v>
       </c>
     </row>
-    <row r="59" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F59">
         <v>100</v>
       </c>
@@ -34584,7 +34582,7 @@
         <v>83.154956266748727</v>
       </c>
     </row>
-    <row r="60" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F60">
         <v>100</v>
       </c>
@@ -34700,7 +34698,7 @@
         <v>116.99683575391009</v>
       </c>
     </row>
-    <row r="61" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F61">
         <v>100</v>
       </c>
@@ -34816,7 +34814,7 @@
         <v>85.49888019844154</v>
       </c>
     </row>
-    <row r="62" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F62">
         <v>100</v>
       </c>
@@ -34932,7 +34930,7 @@
         <v>105.0255607765184</v>
       </c>
     </row>
-    <row r="63" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F63">
         <v>100</v>
       </c>
@@ -35048,7 +35046,7 @@
         <v>94.058903061539695</v>
       </c>
     </row>
-    <row r="64" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F64">
         <v>100</v>
       </c>
@@ -35164,7 +35162,7 @@
         <v>102.72917619256349</v>
       </c>
     </row>
-    <row r="65" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F65">
         <v>100</v>
       </c>
@@ -35280,7 +35278,7 @@
         <v>125.70034305469036</v>
       </c>
     </row>
-    <row r="66" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F66">
         <v>100</v>
       </c>
@@ -35396,7 +35394,7 @@
         <v>93.376076278942293</v>
       </c>
     </row>
-    <row r="67" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F67">
         <v>100</v>
       </c>
@@ -35512,7 +35510,7 @@
         <v>128.71895887267635</v>
       </c>
     </row>
-    <row r="68" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F68">
         <v>100</v>
       </c>
@@ -35628,7 +35626,7 @@
         <v>95.825370988214814</v>
       </c>
     </row>
-    <row r="69" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F69">
         <v>100</v>
       </c>
@@ -35744,7 +35742,7 @@
         <v>113.04683300284007</v>
       </c>
     </row>
-    <row r="70" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F70">
         <v>100</v>
       </c>
@@ -35860,7 +35858,7 @@
         <v>88.211445394828871</v>
       </c>
     </row>
-    <row r="71" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F71">
         <v>100</v>
       </c>
@@ -35976,7 +35974,7 @@
         <v>120.12672678839857</v>
       </c>
     </row>
-    <row r="72" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F72">
         <v>100</v>
       </c>
@@ -36092,7 +36090,7 @@
         <v>94.743445797992692</v>
       </c>
     </row>
-    <row r="73" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F73">
         <v>100</v>
       </c>
@@ -36208,7 +36206,7 @@
         <v>85.119923729208168</v>
       </c>
     </row>
-    <row r="74" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F74">
         <v>100</v>
       </c>
@@ -36324,7 +36322,7 @@
         <v>90.600990336988843</v>
       </c>
     </row>
-    <row r="75" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F75">
         <v>100</v>
       </c>
@@ -36440,7 +36438,7 @@
         <v>111.32276460379614</v>
       </c>
     </row>
-    <row r="76" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F76">
         <v>100</v>
       </c>
@@ -36556,7 +36554,7 @@
         <v>116.18421667610464</v>
       </c>
     </row>
-    <row r="77" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F77">
         <v>100</v>
       </c>
@@ -36672,7 +36670,7 @@
         <v>98.354873671894495</v>
       </c>
     </row>
-    <row r="78" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F78">
         <v>100</v>
       </c>
@@ -36788,7 +36786,7 @@
         <v>106.13043854311482</v>
       </c>
     </row>
-    <row r="79" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F79">
         <v>100</v>
       </c>
@@ -36904,7 +36902,7 @@
         <v>79.326039719257381</v>
       </c>
     </row>
-    <row r="80" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F80">
         <v>100</v>
       </c>
@@ -37020,7 +37018,7 @@
         <v>83.777214844517431</v>
       </c>
     </row>
-    <row r="81" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F81">
         <v>100</v>
       </c>
@@ -37136,7 +37134,7 @@
         <v>87.232754567725834</v>
       </c>
     </row>
-    <row r="82" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F82">
         <v>100</v>
       </c>
@@ -37252,7 +37250,7 @@
         <v>89.044980993516177</v>
       </c>
     </row>
-    <row r="83" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F83">
         <v>100</v>
       </c>
@@ -37368,7 +37366,7 @@
         <v>106.36333960457294</v>
       </c>
     </row>
-    <row r="84" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F84">
         <v>100</v>
       </c>
@@ -37484,7 +37482,7 @@
         <v>108.3501471220859</v>
       </c>
     </row>
-    <row r="85" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F85">
         <v>100</v>
       </c>
@@ -37600,7 +37598,7 @@
         <v>101.40626026060191</v>
       </c>
     </row>
-    <row r="86" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F86">
         <v>100</v>
       </c>
@@ -37716,7 +37714,7 @@
         <v>90.148523153338132</v>
       </c>
     </row>
-    <row r="87" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F87">
         <v>100</v>
       </c>
@@ -37832,7 +37830,7 @@
         <v>111.71812636616039</v>
       </c>
     </row>
-    <row r="88" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F88">
         <v>100</v>
       </c>
@@ -37948,7 +37946,7 @@
         <v>100.17363895320797</v>
       </c>
     </row>
-    <row r="89" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F89">
         <v>100</v>
       </c>
@@ -38064,7 +38062,7 @@
         <v>97.01966864638382</v>
       </c>
     </row>
-    <row r="90" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F90">
         <v>100</v>
       </c>
@@ -38180,7 +38178,7 @@
         <v>106.6236323143488</v>
       </c>
     </row>
-    <row r="91" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F91">
         <v>100</v>
       </c>
@@ -38296,7 +38294,7 @@
         <v>126.32252419043722</v>
       </c>
     </row>
-    <row r="92" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F92">
         <v>100</v>
       </c>
@@ -38412,7 +38410,7 @@
         <v>97.398641484865266</v>
       </c>
     </row>
-    <row r="93" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F93">
         <v>100</v>
       </c>
@@ -38528,7 +38526,7 @@
         <v>95.593976739030495</v>
       </c>
     </row>
-    <row r="94" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F94">
         <v>100</v>
       </c>
@@ -38644,7 +38642,7 @@
         <v>103.47573430328838</v>
       </c>
     </row>
-    <row r="95" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F95">
         <v>100</v>
       </c>
@@ -38760,7 +38758,7 @@
         <v>85.817525725366309</v>
       </c>
     </row>
-    <row r="96" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F96">
         <v>100</v>
       </c>
@@ -38876,7 +38874,7 @@
         <v>108.54015846787593</v>
       </c>
     </row>
-    <row r="97" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F97">
         <v>100</v>
       </c>
@@ -38992,7 +38990,7 @@
         <v>106.84405674660563</v>
       </c>
     </row>
-    <row r="98" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F98">
         <v>100</v>
       </c>
@@ -39108,7 +39106,7 @@
         <v>104.03107286679632</v>
       </c>
     </row>
-    <row r="99" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F99">
         <v>100</v>
       </c>
@@ -39224,7 +39222,7 @@
         <v>98.968730305333949</v>
       </c>
     </row>
-    <row r="100" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F100">
         <v>100</v>
       </c>
@@ -39340,7 +39338,7 @@
         <v>98.537905035672935</v>
       </c>
     </row>
-    <row r="101" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F101">
         <v>100</v>
       </c>
@@ -39456,7 +39454,7 @@
         <v>111.0351713686055</v>
       </c>
     </row>
-    <row r="102" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F102">
         <v>100</v>
       </c>
@@ -39572,7 +39570,7 @@
         <v>97.282333695927747</v>
       </c>
     </row>
-    <row r="103" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F103">
         <v>100</v>
       </c>
@@ -39688,7 +39686,7 @@
         <v>110.47704464919806</v>
       </c>
     </row>
-    <row r="104" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F104">
         <v>100</v>
       </c>
@@ -39804,7 +39802,7 @@
         <v>94.917849261379104</v>
       </c>
     </row>
-    <row r="105" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F105">
         <v>100</v>
       </c>
@@ -39920,7 +39918,7 @@
         <v>114.1238874163068</v>
       </c>
     </row>
-    <row r="106" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F106">
         <v>100</v>
       </c>
@@ -40036,7 +40034,7 @@
         <v>97.371100251014965</v>
       </c>
     </row>
-    <row r="107" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F107">
         <v>100</v>
       </c>
@@ -40152,7 +40150,7 @@
         <v>104.27810933899758</v>
       </c>
     </row>
-    <row r="108" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F108">
         <v>100</v>
       </c>
@@ -40268,7 +40266,7 @@
         <v>113.40645067304904</v>
       </c>
     </row>
-    <row r="109" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F109">
         <v>100</v>
       </c>
@@ -40384,7 +40382,7 @@
         <v>90.109688628590987</v>
       </c>
     </row>
-    <row r="110" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F110">
         <v>100</v>
       </c>
@@ -40500,7 +40498,7 @@
         <v>124.95895750061254</v>
       </c>
     </row>
-    <row r="111" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F111" t="e">
         <v>#N/A</v>
       </c>
@@ -40616,7 +40614,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F112" t="e">
         <v>#N/A</v>
       </c>
@@ -40732,7 +40730,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F113" t="e">
         <v>#N/A</v>
       </c>
@@ -40848,7 +40846,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F114" t="e">
         <v>#N/A</v>
       </c>
@@ -40964,7 +40962,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F115" t="e">
         <v>#N/A</v>
       </c>
@@ -41080,7 +41078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F116" t="e">
         <v>#N/A</v>
       </c>
@@ -41196,7 +41194,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F117" t="e">
         <v>#N/A</v>
       </c>
@@ -41312,7 +41310,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F118" t="e">
         <v>#N/A</v>
       </c>
@@ -41428,7 +41426,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F119" t="e">
         <v>#N/A</v>
       </c>
@@ -41544,7 +41542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F120" t="e">
         <v>#N/A</v>
       </c>
@@ -41660,7 +41658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:43" x14ac:dyDescent="0.55000000000000004">
       <c r="F121" t="e">
         <v>#N/A</v>
       </c>
@@ -41789,14 +41787,14 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="9.5703125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="7" width="9.15625" style="3"/>
+    <col min="8" max="8" width="9.578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.15625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
@@ -41805,7 +41803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -41895,7 +41893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
@@ -41986,7 +41984,7 @@
         <v>1.4917288074380985</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="E5" s="8">
         <f>E4+$E$3</f>
         <v>10.01</v>
@@ -42072,7 +42070,7 @@
         <v>1.5182642122104655</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
@@ -42162,7 +42160,7 @@
         <v>1.5212032799828188</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
@@ -42254,7 +42252,7 @@
         <v>1.5229447836484182</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
@@ -42346,7 +42344,7 @@
         <v>1.5241901333591736</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
@@ -42438,7 +42436,7 @@
         <v>1.525161588690477</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
@@ -42530,7 +42528,7 @@
         <v>1.5259588488315563</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
@@ -42622,7 +42620,7 @@
         <v>1.5266353756207478</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="8">
         <f t="shared" si="1"/>
         <v>80.009999999999991</v>
@@ -42708,7 +42706,7 @@
         <v>1.5272232149714351</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" s="8">
         <f t="shared" si="1"/>
         <v>90.009999999999991</v>
@@ -42794,7 +42792,7 @@
         <v>1.5277431095256651</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
@@ -42886,7 +42884,7 @@
         <v>1.5282092647584813</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
@@ -42978,7 +42976,7 @@
         <v>1.5286318395079028</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" s="8">
         <f t="shared" si="1"/>
         <v>120.00999999999999</v>
@@ -43064,7 +43062,7 @@
         <v>1.5290183522285385</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="3" t="s">
         <v>49</v>
       </c>
@@ -43157,7 +43155,7 @@
         <v>1.5293745245378525</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" s="8">
         <f t="shared" si="1"/>
         <v>140.01</v>
@@ -43243,7 +43241,7 @@
         <v>1.5297048124501313</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="8">
         <f t="shared" si="1"/>
         <v>150.01</v>
@@ -43329,7 +43327,7 @@
         <v>1.5300127545950502</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="10">
         <f t="shared" si="1"/>
         <v>160.01</v>
@@ -43415,7 +43413,7 @@
         <v>1.5303012082610743</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="3" t="s">
         <v>2</v>
       </c>
@@ -43423,7 +43421,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="3">
         <v>2</v>
       </c>
@@ -43431,7 +43429,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" s="3">
         <v>0.01</v>
       </c>
@@ -43440,7 +43438,7 @@
         <v>1.273697449540105</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="E27" s="3">
         <f>E26+$E$25</f>
         <v>2.0099999999999998</v>
@@ -43450,7 +43448,7 @@
         <v>0.84141674246387399</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="3">
         <f t="shared" ref="E28:E45" si="2">E27+$E$25</f>
         <v>4.01</v>
@@ -43460,7 +43458,7 @@
         <v>0.76745762126264638</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="E29" s="3">
         <f t="shared" si="2"/>
         <v>6.01</v>
@@ -43470,7 +43468,7 @@
         <v>0.72062997187548339</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="3">
         <f t="shared" si="2"/>
         <v>8.01</v>
@@ -43480,7 +43478,7 @@
         <v>0.68546098582562986</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" s="3">
         <f t="shared" si="2"/>
         <v>10.01</v>
@@ -43490,7 +43488,7 @@
         <v>0.65688938937359242</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.55000000000000004">
       <c r="E32" s="3">
         <f t="shared" si="2"/>
         <v>12.01</v>
@@ -43500,7 +43498,7 @@
         <v>0.63259365178661242</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" s="3">
         <f t="shared" si="2"/>
         <v>14.01</v>
@@ -43510,7 +43508,7 @@
         <v>0.61130652536523722</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E34" s="3">
         <f t="shared" si="2"/>
         <v>16.009999999999998</v>
@@ -43520,7 +43518,7 @@
         <v>0.59225686230913488</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E35" s="3">
         <f t="shared" si="2"/>
         <v>18.009999999999998</v>
@@ -43530,7 +43528,7 @@
         <v>0.57493888210393806</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E36" s="3">
         <f t="shared" si="2"/>
         <v>20.009999999999998</v>
@@ -43540,7 +43538,7 @@
         <v>0.55900208589974443</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E37" s="3">
         <f t="shared" si="2"/>
         <v>22.009999999999998</v>
@@ -43550,7 +43548,7 @@
         <v>0.54419311227795641</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E38" s="3">
         <f>E37+$E$25</f>
         <v>24.009999999999998</v>
@@ -43560,7 +43558,7 @@
         <v>0.53032259257298764</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E39" s="3">
         <f t="shared" si="2"/>
         <v>26.009999999999998</v>
@@ -43570,7 +43568,7 @@
         <v>0.51724509804014207</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E40" s="3">
         <f t="shared" si="2"/>
         <v>28.009999999999998</v>
@@ -43580,7 +43578,7 @@
         <v>0.50484641362836713</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="3">
         <f t="shared" si="2"/>
         <v>30.009999999999998</v>
@@ -43590,7 +43588,7 @@
         <v>0.49303513845264058</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E42" s="3">
         <f t="shared" si="2"/>
         <v>32.01</v>
@@ -43600,7 +43598,7 @@
         <v>0.48173695785565646</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="3">
         <f t="shared" si="2"/>
         <v>34.01</v>
@@ -43610,7 +43608,7 @@
         <v>0.47089062847549223</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" s="3">
         <f t="shared" si="2"/>
         <v>36.01</v>
@@ -43620,7 +43618,7 @@
         <v>0.46044509799180744</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E45" s="3">
         <f t="shared" si="2"/>
         <v>38.01</v>
@@ -43630,7 +43628,7 @@
         <v>0.45035739832156474</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E46" s="3">
         <f>E45+$E$25</f>
         <v>40.01</v>
@@ -43640,7 +43638,7 @@
         <v>0.44059107988376306</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E47" s="3">
         <f t="shared" ref="E47:E63" si="3">E46+$E$25</f>
         <v>42.01</v>
@@ -43650,7 +43648,7 @@
         <v>0.43111503369391152</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E48" s="3">
         <f t="shared" si="3"/>
         <v>44.01</v>
@@ -43660,7 +43658,7 @@
         <v>0.42190259820355996</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E49" s="3">
         <f t="shared" si="3"/>
         <v>46.01</v>
@@ -43670,7 +43668,7 @@
         <v>0.41293088054957244</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E50" s="3">
         <f t="shared" si="3"/>
         <v>48.01</v>
@@ -43680,7 +43678,7 @@
         <v>0.40418024393050661</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E51" s="3">
         <f t="shared" si="3"/>
         <v>50.01</v>
@@ -43690,7 +43688,7 @@
         <v>0.39563392820658783</v>
       </c>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E52" s="3">
         <f t="shared" si="3"/>
         <v>52.01</v>
@@ -43700,7 +43698,7 @@
         <v>0.38727778202997182</v>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E53" s="3">
         <f t="shared" si="3"/>
         <v>54.01</v>
@@ -43710,7 +43708,7 @@
         <v>0.37910009348623103</v>
       </c>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E54" s="3">
         <f t="shared" si="3"/>
         <v>56.01</v>
@@ -43720,7 +43718,7 @@
         <v>0.37109151350175917</v>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E55" s="3">
         <f t="shared" si="3"/>
         <v>58.01</v>
@@ -43730,7 +43728,7 @@
         <v>0.36324507301125197</v>
       </c>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E56" s="3">
         <f t="shared" si="3"/>
         <v>60.01</v>
@@ -43740,7 +43738,7 @@
         <v>0.35555630183092102</v>
       </c>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E57" s="3">
         <f t="shared" si="3"/>
         <v>62.01</v>
@@ -43750,7 +43748,7 @@
         <v>0.34802346507861048</v>
       </c>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E58" s="3">
         <f t="shared" si="3"/>
         <v>64.009999999999991</v>
@@ -43760,7 +43758,7 @@
         <v>0.34064794261586462</v>
       </c>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E59" s="3">
         <f t="shared" si="3"/>
         <v>66.009999999999991</v>
@@ -43770,7 +43768,7 @@
         <v>0.33343478925741243</v>
       </c>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E60" s="3">
         <f t="shared" si="3"/>
         <v>68.009999999999991</v>
@@ -43780,7 +43778,7 @@
         <v>0.3263935293690492</v>
       </c>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E61" s="3">
         <f t="shared" si="3"/>
         <v>70.009999999999991</v>
@@ -43790,7 +43788,7 @@
         <v>0.31953925977461228</v>
       </c>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E62" s="3">
         <f t="shared" si="3"/>
         <v>72.009999999999991</v>
@@ -43800,7 +43798,7 @@
         <v>0.31289415961459111</v>
       </c>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E63" s="3">
         <f t="shared" si="3"/>
         <v>74.009999999999991</v>
@@ -43810,7 +43808,7 @@
         <v>0.30648953240062426</v>
       </c>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E64" s="3">
         <f>E63+$E$25</f>
         <v>76.009999999999991</v>
@@ -43820,7 +43818,7 @@
         <v>0.30036852489020166</v>
       </c>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E65" s="3">
         <f t="shared" ref="E65:E79" si="4">E64+$E$25</f>
         <v>78.009999999999991</v>
@@ -43830,7 +43828,7 @@
         <v>0.29458965518496633</v>
       </c>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E66" s="3">
         <f t="shared" si="4"/>
         <v>80.009999999999991</v>
@@ -43840,7 +43838,7 @@
         <v>0.28923118179034291</v>
       </c>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E67" s="3">
         <f t="shared" si="4"/>
         <v>82.009999999999991</v>
@@ -43850,7 +43848,7 @@
         <v>0.2843960384568428</v>
       </c>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E68" s="3">
         <f t="shared" si="4"/>
         <v>84.009999999999991</v>
@@ -43860,7 +43858,7 @@
         <v>0.28021633856606093</v>
       </c>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E69" s="3">
         <f t="shared" si="4"/>
         <v>86.009999999999991</v>
@@ -43870,7 +43868,7 @@
         <v>0.27685505533447574</v>
       </c>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E70" s="3">
         <f t="shared" si="4"/>
         <v>88.009999999999991</v>
@@ -43880,7 +43878,7 @@
         <v>0.27450039413351246</v>
       </c>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E71" s="3">
         <f t="shared" si="4"/>
         <v>90.009999999999991</v>
@@ -43890,7 +43888,7 @@
         <v>0.27334670022241092</v>
       </c>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E72" s="3">
         <f t="shared" si="4"/>
         <v>92.009999999999991</v>
@@ -43900,7 +43898,7 @@
         <v>0.27355786779906188</v>
       </c>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E73" s="3">
         <f t="shared" si="4"/>
         <v>94.009999999999991</v>
@@ -43910,7 +43908,7 @@
         <v>0.27521934872392567</v>
       </c>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E74" s="3">
         <f t="shared" si="4"/>
         <v>96.009999999999991</v>
@@ -43920,7 +43918,7 @@
         <v>0.27830007592035705</v>
       </c>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E75" s="3">
         <f t="shared" si="4"/>
         <v>98.009999999999991</v>
@@ -43930,7 +43928,7 @@
         <v>0.28264945780317824</v>
       </c>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E76" s="3">
         <f t="shared" si="4"/>
         <v>100.00999999999999</v>
@@ -43940,7 +43938,7 @@
         <v>0.28803438853421337</v>
       </c>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E77" s="3">
         <f t="shared" si="4"/>
         <v>102.00999999999999</v>
@@ -43950,7 +43948,7 @@
         <v>0.2941942276653205</v>
       </c>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E78" s="3">
         <f t="shared" si="4"/>
         <v>104.00999999999999</v>
@@ -43960,7 +43958,7 @@
         <v>0.30088620413919476</v>
       </c>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E79" s="3">
         <f t="shared" si="4"/>
         <v>106.00999999999999</v>
@@ -43970,7 +43968,7 @@
         <v>0.30790907373658855</v>
       </c>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E80" s="3">
         <f>E79+$E$25</f>
         <v>108.00999999999999</v>
@@ -43980,7 +43978,7 @@
         <v>0.31510827154961246</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E81" s="3">
         <f t="shared" ref="E81:E86" si="5">E80+$E$25</f>
         <v>110.00999999999999</v>
@@ -43990,7 +43988,7 @@
         <v>0.32237094989092474</v>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E82" s="3">
         <f t="shared" si="5"/>
         <v>112.00999999999999</v>
@@ -44000,7 +43998,7 @@
         <v>0.32961758006359648</v>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E83" s="3">
         <f t="shared" si="5"/>
         <v>114.00999999999999</v>
@@ -44010,7 +44008,7 @@
         <v>0.33679365715454301</v>
       </c>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E84" s="3">
         <f t="shared" si="5"/>
         <v>116.00999999999999</v>
@@ -44020,7 +44018,7 @@
         <v>0.34386282765574844</v>
       </c>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E85" s="3">
         <f t="shared" si="5"/>
         <v>118.00999999999999</v>
@@ -44030,7 +44028,7 @@
         <v>0.350801645428094</v>
       </c>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E86" s="3">
         <f t="shared" si="5"/>
         <v>120.00999999999999</v>
@@ -44040,7 +44038,7 @@
         <v>0.35759573642548809</v>
       </c>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E87" s="3">
         <f t="shared" ref="E87:E136" si="6">E86+$E$25</f>
         <v>122.00999999999999</v>
@@ -44050,7 +44048,7 @@
         <v>0.36423705506717158</v>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E88" s="3">
         <f t="shared" si="6"/>
         <v>124.00999999999999</v>
@@ -44060,7 +44058,7 @@
         <v>0.37072194284238646</v>
       </c>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E89" s="3">
         <f t="shared" si="6"/>
         <v>126.00999999999999</v>
@@ -44070,7 +44068,7 @@
         <v>0.37704976089566028</v>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E90" s="3">
         <f t="shared" si="6"/>
         <v>128.01</v>
@@ -44080,7 +44078,7 @@
         <v>0.38322192801579508</v>
       </c>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E91" s="3">
         <f t="shared" si="6"/>
         <v>130.01</v>
@@ -44090,7 +44088,7 @@
         <v>0.38924124350106498</v>
       </c>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E92" s="3">
         <f t="shared" si="6"/>
         <v>132.01</v>
@@ -44100,7 +44098,7 @@
         <v>0.39511141008070394</v>
       </c>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E93" s="3">
         <f t="shared" si="6"/>
         <v>134.01</v>
@@ -44110,7 +44108,7 @@
         <v>0.40083669759740842</v>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E94" s="3">
         <f t="shared" si="6"/>
         <v>136.01</v>
@@ -44120,7 +44118,7 @@
         <v>0.40642170605415956</v>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E95" s="3">
         <f t="shared" si="6"/>
         <v>138.01</v>
@@ -44130,7 +44128,7 @@
         <v>0.41187119907200737</v>
       </c>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E96" s="3">
         <f t="shared" si="6"/>
         <v>140.01</v>
@@ -44140,7 +44138,7 @@
         <v>0.41718998743461555</v>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E97" s="3">
         <f t="shared" si="6"/>
         <v>142.01</v>
@@ -44150,7 +44148,7 @@
         <v>0.42238284838637269</v>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E98" s="3">
         <f t="shared" si="6"/>
         <v>144.01</v>
@@ -44160,7 +44158,7 @@
         <v>0.42745447052423474</v>
       </c>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E99" s="3">
         <f t="shared" si="6"/>
         <v>146.01</v>
@@ -44170,7 +44168,7 @@
         <v>0.4324094170441965</v>
       </c>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E100" s="3">
         <f t="shared" si="6"/>
         <v>148.01</v>
@@ -44180,7 +44178,7 @@
         <v>0.43725210215838434</v>
       </c>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E101" s="3">
         <f t="shared" si="6"/>
         <v>150.01</v>
@@ -44190,7 +44188,7 @@
         <v>0.44198677695304806</v>
       </c>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E102" s="3">
         <f t="shared" si="6"/>
         <v>152.01</v>
@@ -44200,7 +44198,7 @@
         <v>0.44661752199283933</v>
       </c>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E103" s="3">
         <f t="shared" si="6"/>
         <v>154.01</v>
@@ -44210,7 +44208,7 @@
         <v>0.45114824471770348</v>
       </c>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E104" s="3">
         <f t="shared" si="6"/>
         <v>156.01</v>
@@ -44220,7 +44218,7 @@
         <v>0.45558268021200093</v>
       </c>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E105" s="3">
         <f t="shared" si="6"/>
         <v>158.01</v>
@@ -44230,7 +44228,7 @@
         <v>0.45992439431125637</v>
       </c>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E106" s="3">
         <f t="shared" si="6"/>
         <v>160.01</v>
@@ -44240,7 +44238,7 @@
         <v>0.46417678829234738</v>
       </c>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E107" s="3">
         <f t="shared" si="6"/>
         <v>162.01</v>
@@ -44250,7 +44248,7 @@
         <v>0.46834310459761869</v>
       </c>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E108" s="3">
         <f t="shared" si="6"/>
         <v>164.01</v>
@@ -44260,7 +44258,7 @@
         <v>0.47242643319336786</v>
       </c>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E109" s="3">
         <f t="shared" si="6"/>
         <v>166.01</v>
@@ -44270,7 +44268,7 @@
         <v>0.47642971827334829</v>
       </c>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E110" s="3">
         <f t="shared" si="6"/>
         <v>168.01</v>
@@ -44280,7 +44278,7 @@
         <v>0.48035576509912792</v>
       </c>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E111" s="3">
         <f t="shared" si="6"/>
         <v>170.01</v>
@@ -44290,7 +44288,7 @@
         <v>0.48420724682905497</v>
       </c>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E112" s="3">
         <f t="shared" si="6"/>
         <v>172.01</v>
@@ -44300,7 +44298,7 @@
         <v>0.48798671123182802</v>
       </c>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E113" s="3">
         <f t="shared" si="6"/>
         <v>174.01</v>
@@ -44310,7 +44308,7 @@
         <v>0.49169658721334369</v>
       </c>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E114" s="3">
         <f t="shared" si="6"/>
         <v>176.01</v>
@@ -44320,7 +44318,7 @@
         <v>0.4953391911095858</v>
       </c>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E115" s="3">
         <f t="shared" si="6"/>
         <v>178.01</v>
@@ -44330,7 +44328,7 @@
         <v>0.49891673271603382</v>
       </c>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E116" s="3">
         <f t="shared" si="6"/>
         <v>180.01</v>
@@ -44340,7 +44338,7 @@
         <v>0.50243132103703103</v>
       </c>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E117" s="3">
         <f t="shared" si="6"/>
         <v>182.01</v>
@@ -44350,7 +44348,7 @@
         <v>0.5058849697479707</v>
       </c>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E118" s="3">
         <f t="shared" si="6"/>
         <v>184.01</v>
@@ -44360,7 +44358,7 @@
         <v>0.50927960236993253</v>
       </c>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E119" s="3">
         <f t="shared" si="6"/>
         <v>186.01</v>
@@ -44370,7 +44368,7 @@
         <v>0.51261705716119654</v>
       </c>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E120" s="3">
         <f t="shared" si="6"/>
         <v>188.01</v>
@@ -44380,7 +44378,7 @@
         <v>0.51589909173338633</v>
       </c>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E121" s="3">
         <f t="shared" si="6"/>
         <v>190.01</v>
@@ -44390,7 +44388,7 @@
         <v>0.51912738740222031</v>
       </c>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E122" s="3">
         <f t="shared" si="6"/>
         <v>192.01</v>
@@ -44400,7 +44398,7 @@
         <v>0.52230355328426403</v>
       </c>
     </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E123" s="3">
         <f t="shared" si="6"/>
         <v>194.01</v>
@@ -44410,7 +44408,7 @@
         <v>0.52542913015188752</v>
       </c>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E124" s="3">
         <f t="shared" si="6"/>
         <v>196.01</v>
@@ -44420,7 +44418,7 @@
         <v>0.52850559405900732</v>
       </c>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E125" s="3">
         <f t="shared" si="6"/>
         <v>198.01</v>
@@ -44430,7 +44428,7 @@
         <v>0.53153435975024876</v>
       </c>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E126" s="3">
         <f t="shared" si="6"/>
         <v>200.01</v>
@@ -44440,7 +44438,7 @@
         <v>0.53451678386598811</v>
       </c>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E127" s="3">
         <f t="shared" si="6"/>
         <v>202.01</v>
@@ -44450,7 +44448,7 @@
         <v>0.53745416795540724</v>
       </c>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E128" s="3">
         <f t="shared" si="6"/>
         <v>204.01</v>
@@ -44460,7 +44458,7 @@
         <v>0.54034776130925033</v>
       </c>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E129" s="3">
         <f t="shared" si="6"/>
         <v>206.01</v>
@@ -44470,7 +44468,7 @@
         <v>0.54319876362346908</v>
       </c>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E130" s="3">
         <f t="shared" si="6"/>
         <v>208.01</v>
@@ -44480,7 +44478,7 @@
         <v>0.54600832750438766</v>
       </c>
     </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E131" s="3">
         <f t="shared" si="6"/>
         <v>210.01</v>
@@ -44490,7 +44488,7 @@
         <v>0.54877756082545659</v>
       </c>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E132" s="3">
         <f t="shared" si="6"/>
         <v>212.01</v>
@@ -44500,7 +44498,7 @@
         <v>0.55150752894508759</v>
       </c>
     </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E133" s="3">
         <f t="shared" si="6"/>
         <v>214.01</v>
@@ -44510,7 +44508,7 @@
         <v>0.55419925679449777</v>
       </c>
     </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E134" s="3">
         <f t="shared" si="6"/>
         <v>216.01</v>
@@ -44520,7 +44518,7 @@
         <v>0.55685373084393763</v>
       </c>
     </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E135" s="3">
         <f t="shared" si="6"/>
         <v>218.01</v>
@@ -44530,7 +44528,7 @@
         <v>0.55947190095514865</v>
       </c>
     </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E136" s="3">
         <f t="shared" si="6"/>
         <v>220.01</v>
@@ -44553,14 +44551,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="11.5703125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="5" width="9.15625" style="3"/>
+    <col min="6" max="6" width="11.578125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.15625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:46" x14ac:dyDescent="0.55000000000000004">
       <c r="AB1" s="3" t="s">
         <v>30</v>
       </c>
@@ -44568,7 +44566,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="2" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:46" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
@@ -44589,7 +44587,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:46" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -44750,7 +44748,7 @@
         <v>1.1000000000000003</v>
       </c>
     </row>
-    <row r="4" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:46" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
@@ -44916,7 +44914,7 @@
         <v>0.47775919888469981</v>
       </c>
     </row>
-    <row r="5" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E5" s="17">
         <f>E4+$E$3</f>
         <v>22.5</v>
@@ -45078,7 +45076,7 @@
         <v>0.4779465136104174</v>
       </c>
     </row>
-    <row r="6" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:46" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
@@ -45244,7 +45242,7 @@
         <v>0.47814037638179252</v>
       </c>
     </row>
-    <row r="7" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:46" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
@@ -45412,7 +45410,7 @@
         <v>0.4783343933931255</v>
       </c>
     </row>
-    <row r="8" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:46" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
@@ -45580,7 +45578,7 @@
         <v>0.47852535234239568</v>
       </c>
     </row>
-    <row r="9" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:46" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
@@ -45748,7 +45746,7 @@
         <v>0.47871966061199667</v>
       </c>
     </row>
-    <row r="10" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:46" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
@@ -45916,7 +45914,7 @@
         <v>0.47891089531525649</v>
       </c>
     </row>
-    <row r="11" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:46" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
@@ -46084,7 +46082,7 @@
         <v>0.47910225948357194</v>
       </c>
     </row>
-    <row r="12" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="17">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -46246,7 +46244,7 @@
         <v>0.4793034110644151</v>
       </c>
     </row>
-    <row r="13" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" s="17">
         <f t="shared" si="3"/>
         <v>42.5</v>
@@ -46408,7 +46406,7 @@
         <v>0.47949180683292347</v>
       </c>
     </row>
-    <row r="14" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -46570,7 +46568,7 @@
         <v>0.47968676729747839</v>
       </c>
     </row>
-    <row r="15" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" s="17">
         <f t="shared" si="3"/>
         <v>47.5</v>
@@ -46732,7 +46730,7 @@
         <v>0.4798786159031847</v>
       </c>
     </row>
-    <row r="16" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" s="17">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -46894,7 +46892,7 @@
         <v>0.48006733854437583</v>
       </c>
     </row>
-    <row r="17" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" s="17">
         <f t="shared" si="3"/>
         <v>52.5</v>
@@ -47056,7 +47054,7 @@
         <v>0.48026587039941332</v>
       </c>
     </row>
-    <row r="18" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" s="17">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -47218,7 +47216,7 @@
         <v>0.48045479338456115</v>
       </c>
     </row>
-    <row r="19" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="17">
         <f t="shared" si="3"/>
         <v>57.5</v>
@@ -47380,7 +47378,7 @@
         <v>0.48065029356976396</v>
       </c>
     </row>
-    <row r="20" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="17">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -47542,7 +47540,7 @@
         <v>0.48084589222712776</v>
       </c>
     </row>
-    <row r="21" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="17">
         <f t="shared" si="3"/>
         <v>62.5</v>
@@ -47704,7 +47702,7 @@
         <v>0.4810350839943297</v>
       </c>
     </row>
-    <row r="22" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="17">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -47866,7 +47864,7 @@
         <v>0.48124062395329736</v>
       </c>
     </row>
-    <row r="23" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="17">
         <f t="shared" si="3"/>
         <v>67.5</v>
@@ -48028,7 +48026,7 @@
         <v>0.48142672546785775</v>
       </c>
     </row>
-    <row r="24" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="17">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -48190,7 +48188,7 @@
         <v>0.48161941194125907</v>
       </c>
     </row>
-    <row r="25" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="17">
         <f t="shared" si="3"/>
         <v>72.5</v>
@@ -48352,7 +48350,7 @@
         <v>0.48181869975427682</v>
       </c>
     </row>
-    <row r="26" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" s="17">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -48514,7 +48512,7 @@
         <v>0.48201153466796215</v>
       </c>
     </row>
-    <row r="27" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E27" s="17">
         <f t="shared" si="3"/>
         <v>77.5</v>
@@ -48676,7 +48674,7 @@
         <v>0.48220443487720316</v>
       </c>
     </row>
-    <row r="28" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="17">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -48838,7 +48836,7 @@
         <v>0.48239412238242846</v>
       </c>
     </row>
-    <row r="29" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E29" s="17">
         <f t="shared" si="3"/>
         <v>82.5</v>
@@ -49000,7 +48998,7 @@
         <v>0.4825936952340899</v>
       </c>
     </row>
-    <row r="30" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="17">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -49162,7 +49160,7 @@
         <v>0.48278677360305033</v>
       </c>
     </row>
-    <row r="31" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" s="17">
         <f t="shared" si="3"/>
         <v>87.5</v>
@@ -49324,7 +49322,7 @@
         <v>0.48298318823595554</v>
       </c>
     </row>
-    <row r="32" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E32" s="17">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -49486,7 +49484,7 @@
         <v>0.48317636923683704</v>
       </c>
     </row>
-    <row r="33" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" s="17">
         <f t="shared" si="3"/>
         <v>92.5</v>
@@ -49648,7 +49646,7 @@
         <v>0.48337617854305692</v>
       </c>
     </row>
-    <row r="34" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E34" s="17">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -49810,7 +49808,7 @@
         <v>0.48356615681580251</v>
       </c>
     </row>
-    <row r="35" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E35" s="17">
         <f t="shared" si="3"/>
         <v>97.5</v>
@@ -49972,7 +49970,7 @@
         <v>0.48376276373164595</v>
       </c>
     </row>
-    <row r="36" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E36" s="17">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -50134,7 +50132,7 @@
         <v>0.48395611000269217</v>
       </c>
     </row>
-    <row r="37" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E37" s="17">
         <f t="shared" si="3"/>
         <v>102.5</v>
@@ -50296,7 +50294,7 @@
         <v>0.48414948780351758</v>
       </c>
     </row>
-    <row r="38" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E38" s="17">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -50458,7 +50456,7 @@
         <v>0.48434951259228415</v>
       </c>
     </row>
-    <row r="39" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E39" s="17">
         <f t="shared" si="3"/>
         <v>107.5</v>
@@ -50620,7 +50618,7 @@
         <v>0.48453963827388169</v>
       </c>
     </row>
-    <row r="40" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E40" s="17">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -50782,7 +50780,7 @@
         <v>0.48473972799349241</v>
       </c>
     </row>
-    <row r="41" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="17">
         <f t="shared" si="3"/>
         <v>112.5</v>
@@ -50944,7 +50942,7 @@
         <v>0.48492325214123738</v>
       </c>
     </row>
-    <row r="42" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E42" s="17">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -51106,7 +51104,7 @@
         <v>0.48513003429884866</v>
       </c>
     </row>
-    <row r="43" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="17">
         <f t="shared" si="3"/>
         <v>117.5</v>
@@ -51268,7 +51266,7 @@
         <v>0.48531357028861727</v>
       </c>
     </row>
-    <row r="44" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" s="17">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -51430,7 +51428,7 @@
         <v>0.48551374704388017</v>
       </c>
     </row>
-    <row r="45" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E45" s="17">
         <f t="shared" si="3"/>
         <v>122.5</v>
@@ -51592,7 +51590,7 @@
         <v>0.48571061169486085</v>
       </c>
     </row>
-    <row r="46" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E46" s="17">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -51754,7 +51752,7 @@
         <v>0.48590415066248438</v>
       </c>
     </row>
-    <row r="47" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E47" s="17">
         <f t="shared" si="3"/>
         <v>127.5</v>
@@ -51916,7 +51914,7 @@
         <v>0.48609769159132915</v>
       </c>
     </row>
-    <row r="48" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E48" s="17">
         <f t="shared" si="3"/>
         <v>130</v>
@@ -52078,7 +52076,7 @@
         <v>0.48629792067703559</v>
       </c>
     </row>
-    <row r="49" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E49" s="17">
         <f t="shared" si="3"/>
         <v>132.5</v>
@@ -52240,7 +52238,7 @@
         <v>0.48649146425152184</v>
       </c>
     </row>
-    <row r="50" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E50" s="17">
         <f t="shared" si="3"/>
         <v>135</v>
@@ -52402,7 +52400,7 @@
         <v>0.486685001592636</v>
       </c>
     </row>
-    <row r="51" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E51" s="17">
         <f t="shared" si="3"/>
         <v>137.5</v>
@@ -52564,7 +52562,7 @@
         <v>0.4868751749191999</v>
       </c>
     </row>
-    <row r="52" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E52" s="17">
         <f t="shared" si="3"/>
         <v>140</v>
@@ -52726,7 +52724,7 @@
         <v>0.48707876469090805</v>
       </c>
     </row>
-    <row r="53" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E53" s="17">
         <f t="shared" si="3"/>
         <v>142.5</v>
@@ -52888,7 +52886,7 @@
         <v>0.48727227478030699</v>
       </c>
     </row>
-    <row r="54" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E54" s="17">
         <f t="shared" si="3"/>
         <v>145</v>
@@ -53050,7 +53048,7 @@
         <v>0.48745903656477746</v>
       </c>
     </row>
-    <row r="55" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E55" s="17">
         <f t="shared" si="3"/>
         <v>147.5</v>
@@ -53212,7 +53210,7 @@
         <v>0.48765924284296736</v>
       </c>
     </row>
-    <row r="56" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E56" s="12">
         <f t="shared" si="3"/>
         <v>150</v>
@@ -53374,7 +53372,7 @@
         <v>0.4878560689383844</v>
       </c>
     </row>
-    <row r="60" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E60" s="3" t="s">
         <v>32</v>
       </c>
@@ -53388,7 +53386,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="61" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E61" s="3" t="s">
         <v>35</v>
       </c>
@@ -53399,7 +53397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E62" s="3">
         <f t="shared" ref="E62:E93" si="5">LN(F62/$C$3)-$C$4*$F$60</f>
         <v>-5.1973727038202716E-3</v>
@@ -53412,7 +53410,7 @@
         <v>0.45944143389577202</v>
       </c>
     </row>
-    <row r="63" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E63" s="3">
         <f t="shared" si="5"/>
         <v>-4.8052927144807481E-3</v>
@@ -53426,7 +53424,7 @@
         <v>0.45947602591180287</v>
       </c>
     </row>
-    <row r="64" spans="5:46" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:46" x14ac:dyDescent="0.55000000000000004">
       <c r="E64" s="3">
         <f t="shared" si="5"/>
         <v>-4.4133663916114708E-3</v>
@@ -53440,7 +53438,7 @@
         <v>0.45951374675093409</v>
       </c>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E65" s="3">
         <f t="shared" si="5"/>
         <v>-4.0215936148081874E-3</v>
@@ -53454,7 +53452,7 @@
         <v>0.45954834610647499</v>
       </c>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E66" s="3">
         <f t="shared" si="5"/>
         <v>-3.6299742638072376E-3</v>
@@ -53468,7 +53466,7 @@
         <v>0.45957669554048247</v>
       </c>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E67" s="3">
         <f t="shared" si="5"/>
         <v>-3.2385082184870732E-3</v>
@@ -53482,7 +53480,7 @@
         <v>0.45961130028517561</v>
       </c>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E68" s="3">
         <f t="shared" si="5"/>
         <v>-2.8471953588662842E-3</v>
@@ -53496,7 +53494,7 @@
         <v>0.45965216412773657</v>
       </c>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E69" s="3">
         <f t="shared" si="5"/>
         <v>-2.4560355651051316E-3</v>
@@ -53510,7 +53508,7 @@
         <v>0.45967739131779778</v>
       </c>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E70" s="3">
         <f t="shared" si="5"/>
         <v>-2.0650287175035774E-3</v>
@@ -53524,7 +53522,7 @@
         <v>0.45971200526759831</v>
       </c>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E71" s="3">
         <f t="shared" si="5"/>
         <v>-1.6741746965028108E-3</v>
@@ -53538,7 +53536,7 @@
         <v>0.45974662251611437</v>
       </c>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E72" s="3">
         <f t="shared" si="5"/>
         <v>-1.2834733826832881E-3</v>
@@ -53552,7 +53550,7 @@
         <v>0.45977811274858682</v>
       </c>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E73" s="3">
         <f t="shared" si="5"/>
         <v>-8.9292465676624883E-4</v>
@@ -53566,7 +53564,7 @@
         <v>0.45980960501305884</v>
       </c>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E74" s="3">
         <f t="shared" si="5"/>
         <v>-5.0252839961176243E-4</v>
@@ -53580,7 +53578,7 @@
         <v>0.45985049343476425</v>
       </c>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E75" s="3">
         <f t="shared" si="5"/>
         <v>-1.1228449222025136E-4</v>
@@ -53594,7 +53592,7 @@
         <v>0.4598851234377041</v>
       </c>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E76" s="3">
         <f t="shared" si="5"/>
         <v>2.7780718426947265E-4</v>
@@ -53608,7 +53606,7 @@
         <v>0.45991662391031252</v>
       </c>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E77" s="3">
         <f t="shared" si="5"/>
         <v>6.6774674857867852E-4</v>
@@ -53622,7 +53620,7 @@
         <v>0.45995125953840937</v>
       </c>
     </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E78" s="3">
         <f t="shared" si="5"/>
         <v>1.0575343192906796E-3</v>
@@ -53636,7 +53634,7 @@
         <v>0.45997963070735554</v>
       </c>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E79" s="3">
         <f t="shared" si="5"/>
         <v>1.4471700148493069E-3</v>
@@ -53650,7 +53648,7 @@
         <v>0.46001427133132089</v>
       </c>
     </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E80" s="3">
         <f t="shared" si="5"/>
         <v>1.8366539535608663E-3</v>
@@ -53664,7 +53662,7 @@
         <v>0.46004578006973551</v>
       </c>
     </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E81" s="3">
         <f t="shared" si="5"/>
         <v>2.2259862535926045E-3</v>
@@ -53678,7 +53676,7 @@
         <v>0.46008042618157569</v>
       </c>
     </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E82" s="3">
         <f t="shared" si="5"/>
         <v>2.6151670329746836E-3</v>
@@ -53692,7 +53690,7 @@
         <v>0.46011821158474142</v>
       </c>
     </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E83" s="3">
         <f t="shared" si="5"/>
         <v>3.0041964095986404E-3</v>
@@ -53706,7 +53704,7 @@
         <v>0.46015286441667069</v>
       </c>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E84" s="3">
         <f t="shared" si="5"/>
         <v>3.3930745012191212E-3</v>
@@ -53720,7 +53718,7 @@
         <v>0.4601812454097593</v>
       </c>
     </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E85" s="3">
         <f t="shared" si="5"/>
         <v>3.781801425453455E-3</v>
@@ -53734,7 +53732,7 @@
         <v>0.46021276510228576</v>
       </c>
     </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E86" s="3">
         <f t="shared" si="5"/>
         <v>4.1703772997812166E-3</v>
@@ -53748,7 +53746,7 @@
         <v>0.4602474250134862</v>
       </c>
     </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E87" s="3">
         <f t="shared" si="5"/>
         <v>4.5588022415459367E-3</v>
@@ -53762,7 +53760,7 @@
         <v>0.46028522706710134</v>
       </c>
     </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E88" s="3">
         <f t="shared" si="5"/>
         <v>4.9470763679536067E-3</v>
@@ -53776,7 +53774,7 @@
         <v>0.46031675370876746</v>
       </c>
     </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E89" s="3">
         <f t="shared" si="5"/>
         <v>5.3351997960746078E-3</v>
@@ -53790,7 +53788,7 @@
         <v>0.46035142245808947</v>
       </c>
     </row>
-    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E90" s="3">
         <f t="shared" si="5"/>
         <v>5.7231726428421982E-3</v>
@@ -53804,7 +53802,7 @@
         <v>0.46037981213375861</v>
       </c>
     </row>
-    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E91" s="3">
         <f t="shared" si="5"/>
         <v>6.1109950250544526E-3</v>
@@ -53818,7 +53816,7 @@
         <v>0.46042076857810132</v>
       </c>
     </row>
-    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E92" s="3">
         <f t="shared" si="5"/>
         <v>6.4986670593727355E-3</v>
@@ -53832,7 +53830,7 @@
         <v>0.46045544597588428</v>
       </c>
     </row>
-    <row r="93" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E93" s="3">
         <f t="shared" si="5"/>
         <v>6.8861888623236653E-3</v>
@@ -53846,7 +53844,7 @@
         <v>0.46048698333850219</v>
       </c>
     </row>
-    <row r="94" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E94" s="3">
         <f t="shared" ref="E94:E125" si="7">LN(F94/$C$3)-$C$4*$F$60</f>
         <v>7.2735605502975698E-3</v>
@@ -53860,7 +53858,7 @@
         <v>0.46051537901808859</v>
       </c>
     </row>
-    <row r="95" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E95" s="3">
         <f t="shared" si="7"/>
         <v>7.6607822395504191E-3</v>
@@ -53874,7 +53872,7 @@
         <v>0.46055006303295348</v>
       </c>
     </row>
-    <row r="96" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E96" s="3">
         <f t="shared" si="7"/>
         <v>8.0478540462023546E-3</v>
@@ -53888,7 +53886,7 @@
         <v>0.46058789441157577</v>
       </c>
     </row>
-    <row r="97" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E97" s="3">
         <f t="shared" si="7"/>
         <v>8.4347760862395621E-3</v>
@@ -53902,7 +53900,7 @@
         <v>0.46061629427477407</v>
       </c>
     </row>
-    <row r="98" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E98" s="3">
         <f t="shared" si="7"/>
         <v>8.8215484755128012E-3</v>
@@ -53916,7 +53914,7 @@
         <v>0.46065413176320924</v>
       </c>
     </row>
-    <row r="99" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E99" s="3">
         <f t="shared" si="7"/>
         <v>9.2081713297393203E-3</v>
@@ -53930,7 +53928,7 @@
         <v>0.46069197327833017</v>
       </c>
     </row>
-    <row r="100" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E100" s="3">
         <f t="shared" si="7"/>
         <v>9.5946447645013228E-3</v>
@@ -53944,7 +53942,7 @@
         <v>0.46071723064335601</v>
       </c>
     </row>
-    <row r="101" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E101" s="3">
         <f t="shared" si="7"/>
         <v>9.9809688952479519E-3</v>
@@ -53958,7 +53956,7 @@
         <v>0.46075192990611596</v>
       </c>
     </row>
-    <row r="102" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E102" s="3">
         <f t="shared" si="7"/>
         <v>1.0367143837293702E-2</v>
@@ -53972,7 +53970,7 @@
         <v>0.46079292835573127</v>
       </c>
     </row>
-    <row r="103" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E103" s="3">
         <f t="shared" si="7"/>
         <v>1.0753169705820416E-2</v>
@@ -53986,7 +53984,7 @@
         <v>0.46082133650579415</v>
       </c>
     </row>
-    <row r="104" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E104" s="3">
         <f t="shared" si="7"/>
         <v>1.1139046615875711E-2</v>
@@ -54000,7 +53998,7 @@
         <v>0.46085289442227295</v>
       </c>
     </row>
-    <row r="105" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E105" s="3">
         <f t="shared" si="7"/>
         <v>1.152477468237495E-2</v>
@@ -54014,7 +54012,7 @@
         <v>0.46088760372292098</v>
       </c>
     </row>
-    <row r="106" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E106" s="3">
         <f t="shared" si="7"/>
         <v>1.1910354020099718E-2</v>
@@ -54028,7 +54026,7 @@
         <v>0.46092231567501113</v>
       </c>
     </row>
-    <row r="107" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E107" s="3">
         <f t="shared" si="7"/>
         <v>1.229578474369971E-2</v>
@@ -54042,7 +54040,7 @@
         <v>0.46095387901086793</v>
       </c>
     </row>
-    <row r="108" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E108" s="3">
         <f t="shared" si="7"/>
         <v>1.2681066967691265E-2</v>
@@ -54056,7 +54054,7 @@
         <v>0.46098859548510457</v>
       </c>
     </row>
-    <row r="109" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E109" s="3">
         <f t="shared" si="7"/>
         <v>1.3066200806459052E-2</v>
@@ -54070,7 +54068,7 @@
         <v>0.46102646703690892</v>
       </c>
     </row>
-    <row r="110" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E110" s="3">
         <f t="shared" si="7"/>
         <v>1.3451186374255623E-2</v>
@@ -54084,7 +54082,7 @@
         <v>0.46105803623191222</v>
       </c>
     </row>
-    <row r="111" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E111" s="3">
         <f t="shared" si="7"/>
         <v>1.3836023785200997E-2</v>
@@ -54098,7 +54096,7 @@
         <v>0.46108960676533617</v>
       </c>
     </row>
-    <row r="112" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E112" s="3">
         <f t="shared" si="7"/>
         <v>1.4220713153284319E-2</v>
@@ -54112,7 +54110,7 @@
         <v>0.461130641433243</v>
       </c>
     </row>
-    <row r="113" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E113" s="3">
         <f t="shared" si="7"/>
         <v>1.4605254592362407E-2</v>
@@ -54126,7 +54124,7 @@
         <v>0.46115906140078683</v>
       </c>
     </row>
-    <row r="114" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E114" s="3">
         <f t="shared" si="7"/>
         <v>1.4989648216161618E-2</v>
@@ -54140,7 +54138,7 @@
         <v>0.46119063701682983</v>
       </c>
     </row>
-    <row r="115" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E115" s="3">
         <f t="shared" si="7"/>
         <v>1.5373894138276362E-2</v>
@@ -54154,7 +54152,7 @@
         <v>0.46122221390992768</v>
       </c>
     </row>
-    <row r="116" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E116" s="3">
         <f t="shared" si="7"/>
         <v>1.5757992472171016E-2</v>
@@ -54168,7 +54166,7 @@
         <v>0.46125694867337913</v>
       </c>
     </row>
-    <row r="117" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E117" s="3">
         <f t="shared" si="7"/>
         <v>1.6141943331178403E-2</v>
@@ -54182,7 +54180,7 @@
         <v>0.46128537143974124</v>
       </c>
     </row>
-    <row r="118" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E118" s="3">
         <f t="shared" si="7"/>
         <v>1.6525746828501713E-2</v>
@@ -54196,7 +54194,7 @@
         <v>0.46132958337244967</v>
       </c>
     </row>
-    <row r="119" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E119" s="3">
         <f t="shared" si="7"/>
         <v>1.6909403077212969E-2</v>
@@ -54210,7 +54208,7 @@
         <v>0.46136432605240307</v>
       </c>
     </row>
-    <row r="120" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E120" s="3">
         <f t="shared" si="7"/>
         <v>1.7292912190254979E-2</v>
@@ -54224,7 +54222,7 @@
         <v>0.46139907105426409</v>
       </c>
     </row>
-    <row r="121" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E121" s="3">
         <f t="shared" si="7"/>
         <v>1.7676274280439795E-2</v>
@@ -54238,7 +54236,7 @@
         <v>0.46143065869595373</v>
       </c>
     </row>
-    <row r="122" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E122" s="3">
         <f t="shared" si="7"/>
         <v>1.8059489460450627E-2</v>
@@ -54252,7 +54250,7 @@
         <v>0.46146224746472991</v>
       </c>
     </row>
-    <row r="123" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E123" s="3">
         <f t="shared" si="7"/>
         <v>1.8442557842840338E-2</v>
@@ -54266,7 +54264,7 @@
         <v>0.46149699832263119</v>
       </c>
     </row>
-    <row r="124" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E124" s="3">
         <f t="shared" si="7"/>
         <v>1.8825479540033344E-2</v>
@@ -54280,7 +54278,7 @@
         <v>0.46153491315864936</v>
       </c>
     </row>
-    <row r="125" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E125" s="3">
         <f t="shared" si="7"/>
         <v>1.9208254664324104E-2</v>
@@ -54294,7 +54292,7 @@
         <v>0.46156018265979731</v>
       </c>
     </row>
-    <row r="126" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E126" s="3">
         <f t="shared" ref="E126:E157" si="8">LN(F126/$C$3)-$C$4*$F$60</f>
         <v>1.959088332787904E-2</v>
@@ -54308,7 +54306,7 @@
         <v>0.46159810195327949</v>
       </c>
     </row>
-    <row r="127" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E127" s="3">
         <f t="shared" si="8"/>
         <v>1.9973365642735018E-2</v>
@@ -54322,7 +54320,7 @@
         <v>0.46162969799992642</v>
       </c>
     </row>
-    <row r="128" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E128" s="3">
         <f t="shared" si="8"/>
         <v>2.0355701720801228E-2</v>
@@ -54336,7 +54334,7 @@
         <v>0.46165813122734306</v>
       </c>
     </row>
-    <row r="129" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E129" s="3">
         <f t="shared" si="8"/>
         <v>2.0737891673857721E-2</v>
@@ -54350,7 +54348,7 @@
         <v>0.46169289326821006</v>
       </c>
     </row>
-    <row r="130" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E130" s="3">
         <f t="shared" si="8"/>
         <v>2.1119935613557274E-2</v>
@@ -54364,7 +54362,7 @@
         <v>0.46173398791214754</v>
       </c>
     </row>
-    <row r="131" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E131" s="3">
         <f t="shared" si="8"/>
         <v>2.1501833651423885E-2</v>
@@ -54378,7 +54376,7 @@
         <v>0.46176558981732024</v>
       </c>
     </row>
-    <row r="132" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E132" s="3">
         <f t="shared" si="8"/>
         <v>2.1883585898854696E-2</v>
@@ -54392,7 +54390,7 @@
         <v>0.46179402632479172</v>
       </c>
     </row>
-    <row r="133" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E133" s="3">
         <f t="shared" si="8"/>
         <v>2.2265192467118458E-2</v>
@@ -54406,7 +54404,7 @@
         <v>0.46183196358000167</v>
       </c>
     </row>
-    <row r="134" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E134" s="3">
         <f t="shared" si="8"/>
         <v>2.2646653467357225E-2</v>
@@ -54420,7 +54418,7 @@
         <v>0.4618635689679283</v>
       </c>
     </row>
-    <row r="135" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E135" s="3">
         <f t="shared" si="8"/>
         <v>2.3027969010585909E-2</v>
@@ -54434,7 +54432,7 @@
         <v>0.46189517533920105</v>
       </c>
     </row>
-    <row r="136" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E136" s="3">
         <f t="shared" si="8"/>
         <v>2.3409139207691859E-2</v>
@@ -54448,7 +54446,7 @@
         <v>0.46193628909898449</v>
       </c>
     </row>
-    <row r="137" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E137" s="3">
         <f t="shared" si="8"/>
         <v>2.3790164169436488E-2</v>
@@ -54462,7 +54460,7 @@
         <v>0.46197106853136044</v>
       </c>
     </row>
-    <row r="138" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E138" s="3">
         <f t="shared" si="8"/>
         <v>2.4171044006453819E-2</v>
@@ -54476,7 +54474,7 @@
         <v>0.4620026799200016</v>
       </c>
     </row>
-    <row r="139" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E139" s="3">
         <f t="shared" si="8"/>
         <v>2.4551778829252358E-2</v>
@@ -54490,7 +54488,7 @@
         <v>0.46203429217525338</v>
       </c>
     </row>
-    <row r="140" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E140" s="3">
         <f t="shared" si="8"/>
         <v>2.4932368748213578E-2</v>
@@ -54504,7 +54502,7 @@
         <v>0.46206590530114439</v>
       </c>
     </row>
-    <row r="141" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E141" s="3">
         <f t="shared" si="8"/>
         <v>2.5312813873593826E-2</v>
@@ -54518,7 +54516,7 @@
         <v>0.46210069117188729</v>
       </c>
     </row>
-    <row r="142" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E142" s="3">
         <f t="shared" si="8"/>
         <v>2.5693114315522805E-2</v>
@@ -54532,7 +54530,7 @@
         <v>0.46213547899659491</v>
       </c>
     </row>
-    <row r="143" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E143" s="3">
         <f t="shared" si="8"/>
         <v>2.6073270184005466E-2</v>
@@ -54546,7 +54544,7 @@
         <v>0.4621670958125132</v>
       </c>
     </row>
-    <row r="144" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E144" s="3">
         <f t="shared" si="8"/>
         <v>2.6453281588920512E-2</v>
@@ -54560,7 +54558,7 @@
         <v>0.46220188709353366</v>
       </c>
     </row>
-    <row r="145" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E145" s="3">
         <f t="shared" si="8"/>
         <v>2.6833148640022259E-2</v>
@@ -54574,7 +54572,7 @@
         <v>0.46223350601764102</v>
       </c>
     </row>
-    <row r="146" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E146" s="3">
         <f t="shared" si="8"/>
         <v>2.7212871446939166E-2</v>
@@ -54588,7 +54586,7 @@
         <v>0.46226512572678691</v>
       </c>
     </row>
-    <row r="147" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E147" s="3">
         <f t="shared" si="8"/>
         <v>2.7592450119175681E-2</v>
@@ -54602,7 +54600,7 @@
         <v>0.46230309717012519</v>
       </c>
     </row>
-    <row r="148" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E148" s="3">
         <f t="shared" si="8"/>
         <v>2.7971884766110774E-2</v>
@@ -54616,7 +54614,7 @@
         <v>0.46233471953627209</v>
       </c>
     </row>
-    <row r="149" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E149" s="3">
         <f t="shared" si="8"/>
         <v>2.8351175496999795E-2</v>
@@ -54630,7 +54628,7 @@
         <v>0.46236951929764136</v>
       </c>
     </row>
-    <row r="150" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E150" s="3">
         <f t="shared" si="8"/>
         <v>2.8730322420972967E-2</v>
@@ -54644,7 +54642,7 @@
         <v>0.46240114366934576</v>
       </c>
     </row>
-    <row r="151" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E151" s="3">
         <f t="shared" si="8"/>
         <v>2.9109325647037297E-2</v>
@@ -54658,7 +54656,7 @@
         <v>0.46243276871416483</v>
       </c>
     </row>
-    <row r="152" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E152" s="3">
         <f t="shared" si="8"/>
         <v>2.9488185284075034E-2</v>
@@ -54672,7 +54670,7 @@
         <v>0.46247075150005557</v>
       </c>
     </row>
-    <row r="153" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E153" s="3">
         <f t="shared" si="8"/>
         <v>2.986690144084557E-2</v>
@@ -54686,7 +54684,7 @@
         <v>0.46250555824262285</v>
       </c>
     </row>
-    <row r="154" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E154" s="3">
         <f t="shared" si="8"/>
         <v>3.0245474225983934E-2</v>
@@ -54700,7 +54698,7 @@
         <v>0.4625403668098898</v>
       </c>
     </row>
-    <row r="155" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E155" s="3">
         <f t="shared" si="8"/>
         <v>3.0623903748002675E-2</v>
@@ -54714,7 +54712,7 @@
         <v>0.46256881632592572</v>
       </c>
     </row>
-    <row r="156" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E156" s="3">
         <f t="shared" si="8"/>
         <v>3.1002190115290332E-2</v>
@@ -54728,7 +54726,7 @@
         <v>0.46260044630245845</v>
       </c>
     </row>
-    <row r="157" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E157" s="3">
         <f t="shared" si="8"/>
         <v>3.138033343611335E-2</v>
@@ -54742,7 +54740,7 @@
         <v>0.46263844006975768</v>
       </c>
     </row>
-    <row r="158" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E158" s="3">
         <f t="shared" ref="E158:E187" si="10">LN(F158/$C$3)-$C$4*$F$60</f>
         <v>3.1758333818614544E-2</v>
@@ -54756,7 +54754,7 @@
         <v>0.46267325463640491</v>
       </c>
     </row>
-    <row r="159" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E159" s="3">
         <f t="shared" si="10"/>
         <v>3.2136191370814776E-2</v>
@@ -54770,7 +54768,7 @@
         <v>0.46271125390607959</v>
       </c>
     </row>
-    <row r="160" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E160" s="3">
         <f t="shared" si="10"/>
         <v>3.2513906200612501E-2</v>
@@ -54784,7 +54782,7 @@
         <v>0.46273970554914762</v>
       </c>
     </row>
-    <row r="161" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E161" s="3">
         <f t="shared" si="10"/>
         <v>3.2891478415783333E-2</v>
@@ -54798,7 +54796,7 @@
         <v>0.4627681565703588</v>
       </c>
     </row>
-    <row r="162" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E162" s="3">
         <f t="shared" si="10"/>
         <v>3.3268908123981693E-2</v>
@@ -54812,7 +54810,7 @@
         <v>0.46280616096480703</v>
       </c>
     </row>
-    <row r="163" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E163" s="3">
         <f t="shared" si="10"/>
         <v>3.3646195432739293E-2</v>
@@ -54826,7 +54824,7 @@
         <v>0.46284416830903324</v>
       </c>
     </row>
-    <row r="164" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E164" s="3">
         <f t="shared" si="10"/>
         <v>3.4023340449467046E-2</v>
@@ -54840,7 +54838,7 @@
         <v>0.46286943481110887</v>
       </c>
     </row>
-    <row r="165" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E165" s="3">
         <f t="shared" si="10"/>
         <v>3.4400343281453527E-2</v>
@@ -54854,7 +54852,7 @@
         <v>0.46290744546116103</v>
       </c>
     </row>
-    <row r="166" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E166" s="3">
         <f t="shared" si="10"/>
         <v>3.4777204035866857E-2</v>
@@ -54868,7 +54866,7 @@
         <v>0.4629486464518896</v>
       </c>
     </row>
-    <row r="167" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E167" s="3">
         <f t="shared" si="10"/>
         <v>3.5153922819753207E-2</v>
@@ -54882,7 +54880,7 @@
         <v>0.46297709997806835</v>
       </c>
     </row>
-    <row r="168" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E168" s="3">
         <f t="shared" si="10"/>
         <v>3.5530499740038635E-2</v>
@@ -54896,7 +54894,7 @@
         <v>0.4630055529264121</v>
       </c>
     </row>
-    <row r="169" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E169" s="3">
         <f t="shared" si="10"/>
         <v>3.5906934903527622E-2</v>
@@ -54910,7 +54908,7 @@
         <v>0.46304676108029336</v>
       </c>
     </row>
-    <row r="170" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E170" s="3">
         <f t="shared" si="10"/>
         <v>3.6283228416904921E-2</v>
@@ -54924,7 +54922,7 @@
         <v>0.46307521466759638</v>
       </c>
     </row>
-    <row r="171" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E171" s="3">
         <f t="shared" si="10"/>
         <v>3.6659380386734053E-2</v>
@@ -54938,7 +54936,7 @@
         <v>0.46311004794292526</v>
       </c>
     </row>
-    <row r="172" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E172" s="3">
         <f t="shared" si="10"/>
         <v>3.7035390919459163E-2</v>
@@ -54952,7 +54950,7 @@
         <v>0.46315126477226509</v>
       </c>
     </row>
-    <row r="173" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E173" s="3">
         <f t="shared" si="10"/>
         <v>3.7411260121403542E-2</v>
@@ -54966,7 +54964,7 @@
         <v>0.46317652775472568</v>
       </c>
     </row>
-    <row r="174" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E174" s="3">
         <f t="shared" si="10"/>
         <v>3.7786988098771464E-2</v>
@@ -54980,7 +54978,7 @@
         <v>0.46321455723693938</v>
       </c>
     </row>
-    <row r="175" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E175" s="3">
         <f t="shared" si="10"/>
         <v>3.816257495764671E-2</v>
@@ -54994,7 +54992,7 @@
         <v>0.4632462039978108</v>
       </c>
     </row>
-    <row r="176" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E176" s="3">
         <f t="shared" si="10"/>
         <v>3.8538020803994398E-2</v>
@@ -55008,7 +55006,7 @@
         <v>0.46328104442744977</v>
       </c>
     </row>
-    <row r="177" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E177" s="3">
         <f t="shared" si="10"/>
         <v>3.8913325743659515E-2</v>
@@ -55022,7 +55020,7 @@
         <v>0.4633158862996577</v>
       </c>
     </row>
-    <row r="178" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E178" s="3">
         <f t="shared" si="10"/>
         <v>3.928848988236875E-2</v>
@@ -55036,7 +55034,7 @@
         <v>0.46334434053422774</v>
       </c>
     </row>
-    <row r="179" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E179" s="3">
         <f t="shared" si="10"/>
         <v>3.966351332572899E-2</v>
@@ -55050,7 +55048,7 @@
         <v>0.46338237932414689</v>
       </c>
     </row>
-    <row r="180" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E180" s="3">
         <f t="shared" si="10"/>
         <v>4.0038396179229226E-2</v>
@@ -55064,7 +55062,7 @@
         <v>0.46341722502694427</v>
       </c>
     </row>
-    <row r="181" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E181" s="3">
         <f t="shared" si="10"/>
         <v>4.0413138548238976E-2</v>
@@ -55078,7 +55076,7 @@
         <v>0.4634456792979133</v>
       </c>
     </row>
-    <row r="182" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E182" s="3">
         <f t="shared" si="10"/>
         <v>4.0787740538010216E-2</v>
@@ -55092,7 +55090,7 @@
         <v>0.46348372367599028</v>
       </c>
     </row>
-    <row r="183" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E183" s="3">
         <f t="shared" si="10"/>
         <v>4.1162202253675832E-2</v>
@@ -55106,7 +55104,7 @@
         <v>0.463515375323513</v>
       </c>
     </row>
-    <row r="184" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E184" s="3">
         <f t="shared" si="10"/>
         <v>4.1536523800251267E-2</v>
@@ -55120,7 +55118,7 @@
         <v>0.46355022544699598</v>
       </c>
     </row>
-    <row r="185" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E185" s="3">
         <f t="shared" si="10"/>
         <v>4.1910705282634082E-2</v>
@@ -55134,7 +55132,7 @@
         <v>0.46358507701372148</v>
       </c>
     </row>
-    <row r="186" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E186" s="3">
         <f t="shared" si="10"/>
         <v>4.2284746805603519E-2</v>
@@ -55148,7 +55146,7 @@
         <v>0.46362312957600865</v>
       </c>
     </row>
-    <row r="187" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E187" s="3">
         <f t="shared" si="10"/>
         <v>4.2658648473822121E-2</v>
